--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96EA31C-E219-442F-9226-07A946C8E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95607473-8E5D-4B6B-9484-4FBD12F176F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -68,6 +68,66 @@
   </si>
   <si>
     <t>(//div[contains(text(),'Dashboard')])[2]</t>
+  </si>
+  <si>
+    <t>sideMenuUser</t>
+  </si>
+  <si>
+    <t>sideMenuUserList</t>
+  </si>
+  <si>
+    <t>addNewUserBtn</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Add New User')]//parent::button</t>
+  </si>
+  <si>
+    <t>userNameField</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Saman Perera']</t>
+  </si>
+  <si>
+    <t>userRoleField</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Manager']</t>
+  </si>
+  <si>
+    <t>userPhoneField</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='71 234 5678']</t>
+  </si>
+  <si>
+    <t>userEmailField</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='name@gmail.com']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Confirm Password')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Password')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>passwordField</t>
+  </si>
+  <si>
+    <t>confirmPasswordField</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Address')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>addressField</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title '] [contains(text(),'User')]</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'] [contains(text(),'User List')]</t>
   </si>
 </sst>
 </file>
@@ -447,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +598,116 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="36" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95607473-8E5D-4B6B-9484-4FBD12F176F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247B207-E5C7-4EB6-A08E-42CB53C1DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247B207-E5C7-4EB6-A08E-42CB53C1DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A365AE07-A894-4474-91B2-10D79C43AED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A365AE07-A894-4474-91B2-10D79C43AED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FD583-704B-4927-8B5D-F8148FCE3562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>//div[@class='side-menu__title'] [contains(text(),'User List')]</t>
+  </si>
+  <si>
+    <t>Search Dropdown</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Search by')]//parent::div//child::select</t>
+  </si>
+  <si>
+    <t>Search Button</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Search by')]//parent::div//parent::div//child::button</t>
+  </si>
+  <si>
+    <t>Search Box</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Search by')]//parent::div//parent::div//child::input</t>
   </si>
 </sst>
 </file>
@@ -505,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,6 +554,39 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
@@ -708,11 +759,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="97" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FD583-704B-4927-8B5D-F8148FCE3562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B749D-B372-4498-8D48-916E5E3B50EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -40,90 +40,33 @@
     <t>Login</t>
   </si>
   <si>
-    <t>businessName</t>
-  </si>
-  <si>
     <t>//input[@placeholder='Enter Business Name']</t>
   </si>
   <si>
     <t>//input[@placeholder='Enter Email']</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>//input[@placeholder='Enter Password']</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>//button[normalize-space()='Login']</t>
   </si>
   <si>
-    <t>loginBtn</t>
-  </si>
-  <si>
-    <t>dashboardTab</t>
-  </si>
-  <si>
     <t>(//div[contains(text(),'Dashboard')])[2]</t>
   </si>
   <si>
-    <t>sideMenuUser</t>
-  </si>
-  <si>
-    <t>sideMenuUserList</t>
-  </si>
-  <si>
-    <t>addNewUserBtn</t>
-  </si>
-  <si>
     <t>//span[contains(text(),'Add New User')]//parent::button</t>
   </si>
   <si>
-    <t>userNameField</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Saman Perera']</t>
-  </si>
-  <si>
-    <t>userRoleField</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Manager']</t>
-  </si>
-  <si>
-    <t>userPhoneField</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='71 234 5678']</t>
-  </si>
-  <si>
-    <t>userEmailField</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='name@gmail.com']</t>
-  </si>
-  <si>
     <t>//span[contains(text(),'Confirm Password')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
     <t>//span[contains(text(),'Password')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>passwordField</t>
-  </si>
-  <si>
-    <t>confirmPasswordField</t>
-  </si>
-  <si>
     <t>//span[contains(text(),'Address')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>addressField</t>
-  </si>
-  <si>
     <t>//div[@class='side-menu__title '] [contains(text(),'User')]</t>
   </si>
   <si>
@@ -146,6 +89,66 @@
   </si>
   <si>
     <t>//span[contains(.,'Search by')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Business Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Login Button</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Dashboard Tab</t>
+  </si>
+  <si>
+    <t>SideMenu User Tab</t>
+  </si>
+  <si>
+    <t>SideMenu UserList Tab</t>
+  </si>
+  <si>
+    <t>AddNewUser Button</t>
+  </si>
+  <si>
+    <t>Name Field</t>
+  </si>
+  <si>
+    <t>Role Field</t>
+  </si>
+  <si>
+    <t>Contact Number Field</t>
+  </si>
+  <si>
+    <t>Email Address Field</t>
+  </si>
+  <si>
+    <t>Password Field</t>
+  </si>
+  <si>
+    <t>Confirm Password Field</t>
+  </si>
+  <si>
+    <t>Address Field</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Name')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Role')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Contact No')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Email')]//parent::label//parent::div//child::input</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -201,12 +210,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,10 +568,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -567,10 +579,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -578,10 +590,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -596,10 +608,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -607,10 +619,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -618,10 +630,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -629,43 +641,28 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
+    <row r="15" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -673,10 +670,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -684,10 +681,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -695,10 +692,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -706,10 +703,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -717,10 +714,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -728,10 +725,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -739,10 +736,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -750,24 +747,47 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="99" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B749D-B372-4498-8D48-916E5E3B50EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B2AED-ACD3-4936-A51D-E43920B2B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,10 +145,10 @@
     <t>//span[contains(text(),'Role')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>//span[contains(text(),'Contact No')]//parent::label//parent::div//child::input</t>
-  </si>
-  <si>
     <t>//span[contains(text(),'Email')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Contact No.')]//parent::label//parent::div//child::input</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -739,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B2AED-ACD3-4936-A51D-E43920B2B2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D8D3BC-6BA2-4D04-BEF6-EB94CA902C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D8D3BC-6BA2-4D04-BEF6-EB94CA902C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4A1DD-CE34-4854-85D2-311150D663DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>//span[contains(text(),'Contact No.')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Side Menu Bar - Tabs</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +200,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +228,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -599,30 +611,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -630,10 +671,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -641,16 +682,27 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -659,10 +711,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -670,10 +722,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -681,10 +733,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -692,10 +744,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -703,10 +755,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -714,10 +766,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -725,10 +777,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -736,58 +788,26 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="96" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4A1DD-CE34-4854-85D2-311150D663DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0381BC-557F-45A9-9B93-DF1D746DF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -148,10 +148,55 @@
     <t>//span[contains(text(),'Email')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>//span[contains(text(),'Contact No.')]//parent::label//parent::div//child::input</t>
-  </si>
-  <si>
     <t>Side Menu Bar - Tabs</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Contact No.')]//parent::label//parent::div//child::input[@type='text']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'New Password')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>New Password Field</t>
+  </si>
+  <si>
+    <t>//*[@id="notification-content"]/div/div/div[2]</t>
+  </si>
+  <si>
+    <t>Toast Message</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Reset']</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Reset Button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Save']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Clear']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Update']</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Close']</t>
+  </si>
+  <si>
+    <t>Save Button</t>
+  </si>
+  <si>
+    <t>Clear Button</t>
+  </si>
+  <si>
+    <t>Update Button</t>
+  </si>
+  <si>
+    <t>Close Button</t>
   </si>
 </sst>
 </file>
@@ -175,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +251,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -219,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +282,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,14 +604,14 @@
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="78.21875" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -611,30 +665,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -642,28 +696,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -671,10 +729,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -682,39 +740,39 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -722,32 +780,28 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -755,10 +809,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -766,10 +820,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -777,23 +831,118 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -803,11 +952,12 @@
     <row r="95" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="96" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0381BC-557F-45A9-9B93-DF1D746DF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A09D83-5020-4FCF-982E-4E37EB9999FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -31,15 +31,9 @@
     <t>Method</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>By.xpath</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>//input[@placeholder='Enter Business Name']</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Login Button</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>Dashboard Tab</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>//span[contains(text(),'Email')]//parent::label//parent::div//child::input</t>
   </si>
   <si>
-    <t>Side Menu Bar - Tabs</t>
-  </si>
-  <si>
     <t>//span[contains(.,'Contact No.')]//parent::label//parent::div//child::input[@type='text']</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>//button[normalize-space()='Reset']</t>
   </si>
   <si>
-    <t>Buttons</t>
-  </si>
-  <si>
     <t>Reset Button</t>
   </si>
   <si>
@@ -197,6 +182,75 @@
   </si>
   <si>
     <t>Close Button</t>
+  </si>
+  <si>
+    <t>SideMenu Contacts Tab</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title '][normalize-space()='Contacts']</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>SIDE MENU BAR - TABS</t>
+  </si>
+  <si>
+    <t>BUTTONS</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>AddNewCustomer Button</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Customer')]//parent::button</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Contact Name')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Contact No.1')]//parent::label//parent::div//child::input[@type='text']</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Contact No.2')]//parent::label//parent::div//child::input[@type='text']</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Shipping Address')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'City')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Contacts-Contact Name Field</t>
+  </si>
+  <si>
+    <t>Contacts-ReferenceID</t>
+  </si>
+  <si>
+    <t>Contacts-Contact No.1</t>
+  </si>
+  <si>
+    <t>Contacts-Shipping Address Field</t>
+  </si>
+  <si>
+    <t>Contacts-City Field</t>
+  </si>
+  <si>
+    <t>Contacts-Email Field</t>
+  </si>
+  <si>
+    <t>Contacts-Contact No.2</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Reference ID')]//parent::label//parent::div//child::input</t>
   </si>
 </sst>
 </file>
@@ -220,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +311,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -270,8 +330,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,336 +689,441 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="90" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A09D83-5020-4FCF-982E-4E37EB9999FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCFE141-8D66-4A69-9E0A-9B3230C9B1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -251,6 +251,45 @@
   </si>
   <si>
     <t>//span[contains(text(),'Reference ID')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Unit')]//parent::button</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Unit Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Short Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//*[@id="allowDecimal"]</t>
+  </si>
+  <si>
+    <t>Add New Unit Button</t>
+  </si>
+  <si>
+    <t>Unit Name Field</t>
+  </si>
+  <si>
+    <t>Short  Name Field</t>
+  </si>
+  <si>
+    <t>Allow Decimal Checkbox</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title '][normalize-space()='Products']</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'][normalize-space()='Units']</t>
+  </si>
+  <si>
+    <t>SideMenu Products Tab</t>
+  </si>
+  <si>
+    <t>SideMenu Units Tab</t>
   </si>
 </sst>
 </file>
@@ -274,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD174F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -330,8 +375,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,6 +404,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD174F6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -664,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,12 +741,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -740,11 +793,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -813,11 +866,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -864,40 +917,40 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -905,50 +958,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
+      <c r="A26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -956,10 +1009,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -967,10 +1020,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -978,10 +1031,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -989,10 +1042,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1000,10 +1053,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1011,50 +1064,50 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
+    <row r="36" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1062,10 +1115,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1073,10 +1126,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1084,10 +1137,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1095,10 +1148,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1106,24 +1159,98 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.3"/>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="92" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A34:C34"/>
+  <mergeCells count="7">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCFE141-8D66-4A69-9E0A-9B3230C9B1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57446DA1-509D-48DF-B22B-3BB0E20FC5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57446DA1-509D-48DF-B22B-3BB0E20FC5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F8DD5D-9451-46AC-8490-A990FBA954D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -290,6 +290,27 @@
   </si>
   <si>
     <t>SideMenu Units Tab</t>
+  </si>
+  <si>
+    <t>BRANDS</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Brand')]//parent::button</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Brand Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Remark')]//parent::div//child::textarea</t>
+  </si>
+  <si>
+    <t>Brand  Name Field</t>
+  </si>
+  <si>
+    <t>Brand Remark Field</t>
+  </si>
+  <si>
+    <t>Add New Brand Button</t>
   </si>
 </sst>
 </file>
@@ -313,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -375,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +423,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,11 +1271,52 @@
         <v>3</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="90" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="92" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A2:C2"/>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F8DD5D-9451-46AC-8490-A990FBA954D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9781D5-AFF1-4696-9309-E0F1AB84B586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Add New Brand Button</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'][normalize-space()='Brands']</t>
+  </si>
+  <si>
+    <t>SideMenu Brands Tab</t>
   </si>
 </sst>
 </file>
@@ -404,6 +410,9 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,9 +432,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,11 +778,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -823,11 +829,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -896,11 +902,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -969,29 +975,29 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -999,10 +1005,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1010,39 +1016,39 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1050,10 +1056,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1061,10 +1067,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1072,10 +1078,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1083,10 +1089,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1094,10 +1100,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1105,10 +1111,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1116,39 +1122,39 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1156,10 +1162,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1167,10 +1173,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1178,10 +1184,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1189,10 +1195,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1200,10 +1206,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1211,39 +1217,39 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>74</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1251,10 +1257,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -1262,39 +1268,39 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>81</v>
       </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -1302,26 +1308,37 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>95</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>93</v>
       </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.3"/>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="92" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="93" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9781D5-AFF1-4696-9309-E0F1AB84B586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA228FFE-384E-4D85-BB47-F40A18D15613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,9 +304,6 @@
     <t>//label[contains(.,'Remark')]//parent::div//child::textarea</t>
   </si>
   <si>
-    <t>Brand  Name Field</t>
-  </si>
-  <si>
     <t>Brand Remark Field</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>SideMenu Brands Tab</t>
+  </si>
+  <si>
+    <t>Brand Name Field</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,10 +976,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>91</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
         <v>92</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA228FFE-384E-4D85-BB47-F40A18D15613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C89ECB-7333-4EB8-B119-5DB75223FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -317,6 +317,30 @@
   </si>
   <si>
     <t>Brand Name Field</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'][normalize-space()='Categories']</t>
+  </si>
+  <si>
+    <t>SideMenu Categories Tab</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Category')]//parent::button</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Category Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Add New Category Button</t>
+  </si>
+  <si>
+    <t>Category Name Field</t>
+  </si>
+  <si>
+    <t>Category Remark Field</t>
   </si>
 </sst>
 </file>
@@ -755,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,29 +1010,29 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
@@ -1016,10 +1040,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -1027,39 +1051,39 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1067,10 +1091,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1078,10 +1102,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1089,10 +1113,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1100,10 +1124,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1111,10 +1135,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1122,10 +1146,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1133,39 +1157,39 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1173,10 +1197,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1184,10 +1208,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1195,10 +1219,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1206,10 +1230,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1217,10 +1241,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1228,39 +1252,39 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>74</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -1268,10 +1292,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -1279,39 +1303,39 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>85</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>81</v>
       </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1319,12 +1343,63 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>94</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>93</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1332,13 +1407,14 @@
     <row r="92" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="93" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A37:C37"/>
+  <mergeCells count="9">
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C89ECB-7333-4EB8-B119-5DB75223FCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C70114-76A6-4FED-8716-1C0A507C87A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -341,6 +341,63 @@
   </si>
   <si>
     <t>Category Remark Field</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Product')]//parent::button</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Product Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Unit')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Brand')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Category')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//input[@class='w-full rounded-lg border !border-slate-200 pr-8 text-sm']</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Selling Price')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>(//div[@class='ql-container ql-snow']//child::div)[1]</t>
+  </si>
+  <si>
+    <t>Add New Product Button</t>
+  </si>
+  <si>
+    <t>Product Name Field</t>
+  </si>
+  <si>
+    <t>Product Unit Field</t>
+  </si>
+  <si>
+    <t>Product Brand Field</t>
+  </si>
+  <si>
+    <t>Product Category Field</t>
+  </si>
+  <si>
+    <t>Dropdown Search</t>
+  </si>
+  <si>
+    <t>Product SellingPrice Field</t>
+  </si>
+  <si>
+    <t>Product Description Field</t>
+  </si>
+  <si>
+    <t>SideMenu ProductList Tab</t>
+  </si>
+  <si>
+    <t>//div[@class='side-menu__title'][normalize-space()='Product List']</t>
   </si>
 </sst>
 </file>
@@ -434,6 +491,9 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,9 +510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -777,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,11 +859,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -926,11 +983,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1021,29 +1078,29 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -1051,10 +1108,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1062,39 +1119,39 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1102,10 +1159,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1113,10 +1170,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1124,10 +1181,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1135,10 +1192,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1146,10 +1203,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1157,50 +1214,50 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1208,10 +1265,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1219,10 +1276,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1230,10 +1287,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1241,10 +1298,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1252,10 +1309,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1263,39 +1320,39 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>74</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>38</v>
       </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -1303,10 +1360,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1314,39 +1371,39 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>85</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>81</v>
       </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1354,39 +1411,39 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>94</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>93</v>
       </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -1394,27 +1451,134 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>106</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>93</v>
       </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.3"/>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="94" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A38:C38"/>
+  <mergeCells count="10">
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C70114-76A6-4FED-8716-1C0A507C87A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC4E89-E722-4B67-9C9E-DF4A48C52708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="135">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -398,6 +398,33 @@
   </si>
   <si>
     <t>//div[@class='side-menu__title'][normalize-space()='Product List']</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Add New Role')]//parent::button</t>
+  </si>
+  <si>
+    <t>Add New Role Button</t>
+  </si>
+  <si>
+    <t>Role Name Field</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Role Name')]//parent::label//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Add Permissions Button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Save &amp; Add Permissions']</t>
+  </si>
+  <si>
+    <t>All Permissions Checkbox</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'Select All')]//parent::div//child::input</t>
   </si>
 </sst>
 </file>
@@ -421,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,6 +503,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF71F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -489,8 +522,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,10 +545,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,6 +559,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF71F9F9"/>
       <color rgb="FFD174F6"/>
     </mruColors>
   </colors>
@@ -834,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,11 +896,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -983,11 +1020,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1089,11 +1126,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1140,18 +1177,18 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1159,10 +1196,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1170,10 +1207,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1181,32 +1218,28 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1214,10 +1247,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1225,39 +1258,43 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1265,10 +1302,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1276,43 +1313,39 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
+      <c r="A44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1320,10 +1353,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1331,28 +1364,32 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -1360,10 +1397,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1371,10 +1408,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -1382,28 +1419,28 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1411,10 +1448,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -1422,39 +1459,39 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
+      <c r="A58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -1462,39 +1499,39 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
         <v>93</v>
       </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
+      <c r="A62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -1502,10 +1539,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1513,32 +1550,28 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
+      <c r="A66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1546,10 +1579,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -1557,30 +1590,86 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>123</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B74" t="s">
         <v>115</v>
       </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.3"/>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="99" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A39:C39"/>
+  <mergeCells count="11">
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC4E89-E722-4B67-9C9E-DF4A48C52708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F2056-DC5F-44C8-B46B-964A0688527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>//label[contains(text(),'Select All')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'side-menu__title')][normalize-space()='Roles']</t>
+  </si>
+  <si>
+    <t>SideMenu Roles Tab</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -537,18 +555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,11 +902,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -947,11 +953,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1020,11 +1026,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1126,29 +1132,29 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1156,10 +1162,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1167,39 +1173,39 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1207,10 +1213,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1218,39 +1224,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>133</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>134</v>
       </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1258,10 +1264,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1269,10 +1275,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1280,10 +1286,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1291,10 +1297,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -1302,10 +1308,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1313,50 +1319,50 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1364,10 +1370,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1375,10 +1381,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -1386,10 +1392,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -1397,10 +1403,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1408,10 +1414,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -1419,39 +1425,39 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>74</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -1459,10 +1465,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1470,39 +1476,39 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>85</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>81</v>
       </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1510,39 +1516,39 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>94</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>93</v>
       </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1550,39 +1556,39 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -1590,10 +1596,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1601,10 +1607,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -1612,10 +1618,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -1623,10 +1629,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -1634,10 +1640,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -1645,31 +1651,42 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>123</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>115</v>
       </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.3"/>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="100" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47F2056-DC5F-44C8-B46B-964A0688527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7045AAA2-A01B-400C-9CAC-6E3F4D44F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
   <si>
     <t xml:space="preserve">ElementID </t>
   </si>
@@ -199,9 +199,6 @@
     <t>LOGIN</t>
   </si>
   <si>
-    <t>SIDE MENU BAR - TABS</t>
-  </si>
-  <si>
     <t>BUTTONS</t>
   </si>
   <si>
@@ -431,6 +428,90 @@
   </si>
   <si>
     <t>SideMenu Roles Tab</t>
+  </si>
+  <si>
+    <t>SIDE MENU BAR - TABS &amp; BUTTONS</t>
+  </si>
+  <si>
+    <t>Settings Icon</t>
+  </si>
+  <si>
+    <t>//li[normalize-space()='Business Settings']</t>
+  </si>
+  <si>
+    <t>Business Settings</t>
+  </si>
+  <si>
+    <t>Locations Tab</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Locations']</t>
+  </si>
+  <si>
+    <t>//li[normalize-space()='Business Settings']/parent::ul//parent::div//parent::div//child::button</t>
+  </si>
+  <si>
+    <t>LOCATIONS</t>
+  </si>
+  <si>
+    <t>Cities Tab</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Cities']</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New Location')]//parent::button</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Location Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Address')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'City')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Email')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Add New City')]//parent::button</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'City Name')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Postal Code')]//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>Add New Location Button</t>
+  </si>
+  <si>
+    <t>Location Name Field</t>
+  </si>
+  <si>
+    <t>Location Address Field</t>
+  </si>
+  <si>
+    <t>Location City Field</t>
+  </si>
+  <si>
+    <t>Location ContactNo Field</t>
+  </si>
+  <si>
+    <t>Location Email Field</t>
+  </si>
+  <si>
+    <t>CITIES</t>
+  </si>
+  <si>
+    <t>Add New City Button</t>
+  </si>
+  <si>
+    <t>City Name Field</t>
+  </si>
+  <si>
+    <t>City Postal Code Field</t>
   </si>
 </sst>
 </file>
@@ -533,19 +614,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -555,6 +624,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,11 +983,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -953,11 +1034,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1026,11 +1107,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1078,10 +1159,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -1089,10 +1170,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -1100,10 +1181,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1111,10 +1192,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -1122,10 +1203,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
         <v>124</v>
-      </c>
-      <c r="B23" t="s">
-        <v>125</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -1133,28 +1214,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1162,10 +1236,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1173,10 +1247,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1184,28 +1258,28 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1213,10 +1287,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1224,10 +1298,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1235,28 +1309,28 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1264,10 +1338,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1275,10 +1349,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1286,32 +1360,28 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1319,10 +1389,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1330,39 +1400,43 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1370,10 +1444,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1381,43 +1455,39 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
+      <c r="A50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -1425,10 +1495,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -1436,28 +1506,32 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -1465,10 +1539,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1476,10 +1550,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1487,28 +1561,28 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1516,10 +1590,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1527,39 +1601,39 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
+      <c r="A64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1567,39 +1641,39 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>93</v>
       </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3</v>
-      </c>
+      <c r="A68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1607,10 +1681,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -1618,32 +1692,28 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
+      <c r="A72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -1651,10 +1721,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -1662,31 +1732,201 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="104" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A35:C35"/>
+  <mergeCells count="13">
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A50:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7045AAA2-A01B-400C-9CAC-6E3F4D44F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18D375-6D5B-41CD-8E8F-33C20B0CBA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,19 +611,13 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -632,10 +626,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,11 +983,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1034,11 +1034,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1107,11 +1107,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1268,11 +1268,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1319,11 +1319,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1370,11 +1370,11 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1476,11 +1476,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -1571,11 +1571,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -1622,11 +1622,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -1662,11 +1662,11 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -1702,11 +1702,11 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -1797,11 +1797,11 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -1870,11 +1870,11 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18D375-6D5B-41CD-8E8F-33C20B0CBA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F6B23-C2F7-432A-85DC-7B819B65BA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,9 +448,6 @@
     <t>//button[normalize-space()='Locations']</t>
   </si>
   <si>
-    <t>//li[normalize-space()='Business Settings']/parent::ul//parent::div//parent::div//child::button</t>
-  </si>
-  <si>
     <t>LOCATIONS</t>
   </si>
   <si>
@@ -512,6 +509,9 @@
   </si>
   <si>
     <t>City Postal Code Field</t>
+  </si>
+  <si>
+    <t>(//div[@class='p-3 fixed bottom-0 left-0 w-[260px] border-gray-300 ']//child::button)[last()]</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1228,7 @@
         <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
         <v>144</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1798,17 +1798,17 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
         <v>39</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -1871,17 +1871,17 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
